--- a/baseline/llm_geminipro/geminipro_analysis/facebook_streamlined/2-shot/Validation_Phishing_2_shot_facebook.xlsx
+++ b/baseline/llm_geminipro/geminipro_analysis/facebook_streamlined/2-shot/Validation_Phishing_2_shot_facebook.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\0_App_Development_Folder\Playwright_Crawler_New\baseline\llm_geminipro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\0_App_Development_Folder\Playwright_Crawler_New\baseline\llm_geminipro\geminipro_analysis\facebook_streamlined\2-shot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16443DB3-CD39-47FB-A931-C7C671D1F40B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF522F5-3F6A-4ADA-9E11-803C88770CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gemini-Pro Phishing" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="79">
   <si>
     <t>File Hash</t>
   </si>
@@ -651,7 +651,7 @@
   <dimension ref="A1:AF999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB35" sqref="AB35"/>
+      <selection activeCell="AD34" sqref="AD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1211,8 +1211,9 @@
       <c r="Z10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AA10" s="4" t="s">
-        <v>28</v>
+      <c r="AA10" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
       </c>
       <c r="AB10" s="4" t="str">
         <f t="shared" si="3"/>
@@ -1234,7 +1235,7 @@
         <v>57</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1270,7 +1271,7 @@
       </c>
       <c r="AA11" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="AB11" s="4" t="str">
         <f t="shared" si="3"/>
@@ -1713,7 +1714,7 @@
       </c>
       <c r="AE19" s="13">
         <f>COUNTIFS(AA2:AA150, "Yes")</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AF19" t="s">
         <v>39</v>
@@ -1771,7 +1772,7 @@
       </c>
       <c r="AE20" s="13">
         <f>COUNTIFS(AA2:AA150, "No")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF20" t="s">
         <v>45</v>
